--- a/500all/speech_level/speeches_CHRG-114hhrg95493.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95493.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400373</t>
   </si>
   <si>
-    <t>John Shimkus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Shimkus. I would like to call the hearing to order and recognize myself for an opening statement.    Today's hearing focuses on challenges facing rural water systems. I congratulate and thank the ranking member of the subcommittee Mr. Tonko and the vice chairman of the subcommittee, Mr. Harper, for their bipartisan work to raise the profile of this issue before this subcommittee.    According to the Census Bureau, approximately 27 percent of the U.S. population lives in rural areas. The smallest water systems account for 77 percent of all systems. As someone who proudly represents communities in small town in rural America, I am glad we have bipartisan interest in tackling this subject.    Under the Safe Drinking Water Act, small and rural drinking water supply systems are subject to a number of drinking water regulations issued by EPA. These requirements include systems monitoring, treatment to remove certain contaminants, and reporting. Addressing these matters requires technical, managerial, and physical capabilities that are difficult to develop and are often beyond the capacity of these towns to afford on the same scale as urban centers, particularly when it comes to regulatory compliance.    It is ironic that these communities where residents work hard to support their families and their local governments, while often earning wages below those of their counterparts in the more urbanized area, face per-customer compliance costs and demands that are disproportionate to many larger communities. Sometimes it is just a matter of having the ability to keep up with the red tape.    While I am sure we will explore the funding mechanisms under EPA, the Agriculture Department, and other Federal agencies, it is not just a matter of throwing more scarce money at the problem. Rather, it is about smartly assessing what the needs are for these systems, prioritizing the importance of those needs, finding out whether the current system can be improved to remove unnecessary burdens and eliminate bureaucracy, and examining whether voluntary or other collaboratory efforts can aid where Congress cannot.    I want to thank our witnesses who have put their lives on hold to battle the elements and join us. People who live in rural communities deserve every bit of the water quality and technical resources that folks who lives in densely populated urban centers do. We look forward to your wisdom in helping us understand these issues.    Thanks again to Mr. Tonko and Mr. Harper for their work on this issue. I know Mr. Tonko has an interest in addressing some drinking water issues, and I appreciate the work he and Mr. Harper are doing to break the ice with this first effort.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412280</t>
   </si>
   <si>
-    <t>Gregg Harper</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And I appreciate you holding this hearing on the needs of drinking water systems in rural and smaller communities.    Like you and many other members of Congress, I represent a rural district where many of my constituents get their drinking water from smaller cities, towns, and water associations.    According to the National Rural Water Association, more than 90 percent of the community water systems across the United States serve a population less than 10,000 individuals. These smaller communities do an incredible job of providing our constituents with clean, safe drinking water, but are often at a disadvantage because of economics of scale and a need for more technical expertise.    I know that this as an important issue to you, Mr. Chairman and the ranking member, and I thank you for the opportunity to continue working on legislation to ensure our constituents get the help and clean water they need.    I would like to say welcome to my fellow Mississippians, Mr. Newman, Mr. Selman, and thank them for providing their insight to the subcommittee today.    Mr. Chairman, thank you again for your commitment on this issue, and I yield back.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Well, thank you and good morning to our witnesses.    And thank you, Chair Shimkus, for holding this important hearing on what is a very vital topic and appreciate the opportunity to work in partnership with our Vice Chair Harper as we address, again, a very important phenomenon for all of our communities across the country.    We have all heard the often repeated statistics about rural and small water systems. More than 94 percent of the 150,000 public drinking water systems in the United States serve fewer than 3300 customers. Although small systems dominate in numbers, they serve just about 8 percent of our population overall. But to households and businesses across this great country, the key feature they are interested in is not the size of their water utility. It is reliable, daily delivery of safe clean water at an affordable price to their homes and businesses that matters.    We will hear from managers of these small systems here this morning. And what we will hear is that they cannot simply pass all of their costs for technical assistance, infrastructure repairs, tapping into new water sources, or keeping pace with drinking water regulations onto their customers with ongoing rate increases. The rate bases for these small systems are too small to cover the costs of these essential materials and services. It is long past time for us here in Congress to provide robust financial support for our water utilities.    In addition to support through traditional funding mechanisms, the SRF, and grant programs, we should also examine alternative financing mechanisms, new technologies, and potential new partnerships that will enable every dollar to go forward in reducing the backlog of infrastructure projects and in ways reducing operating costs through efficiency, both water and energy.    I am very pleased to have Mayor Keegan here this morning to represent the small water utilities that serve people throughout our State, New York. Mayor Keegan and our witnesses from Representative Harper's district in Mississippi will provide us with a glimpse of the challenges they face each and every day in their efforts to deliver clean safe drinking water to their public. They do a remarkable job in keeping clean water flowing to every home, every day.    Water infrastructure is essential. It is the only way to state it. We can afford to do this. We cannot afford to delay these investments any longer. Public health, community viability, and economic vitality all rest on the foundation of a sound infrastructure. We cannot maintain global leadership and compete in a 21st century global economy with 20th century infrastructure held together with a hope and a prayer.    We have an excellent panel with us today. Thank you for taking time away from your important work and busy schedules to be here to do your messaging this morning.    And thank you, Mayor Keegan, Mayor Newman--Mr. Newman, Mr. Selman, and Mr. Stewart for the expertise and dedication you will demonstrate to your communities--that you demonstrate to your communities each and every day at work. I look forward to your testimony and to working with each and every one of you as we move forward.    And I am very pleased to working with the chair of the subcommittee and with our vice chair, Representative Harper, and other members of the subcommittee on this very important issue.    With that, I thank you.    And, Mr. Chair, I yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400308</t>
   </si>
   <si>
-    <t>Frank Pallone, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, Mr. Tonko.    Customers of all public water systems, large and small, wealth and disadvantaged deserve safe affordable drinking water. Unfortunately, public water systems across the country are facing staggering infrastructure replacement costs and emerging threats, including climate change.    Resource is essential to any conversation about safe drinking water. Much of our Nation's drinking water infrastructure is well beyond its useful life and in desperate need of replacement. Investing in drinking water infrastructure protects public health, creates jobs, and boosts the economy. This is particularly important in the case of small and rural systems in which even minor projects can be unaffordable. And I thank the chairman for calling this hearing to examine some of the challenges these systems face.    In 1996, this committee passed amendments to the Safe Drinking Water Act that set a number of programs intended to help small and rural water systems. Those programs focused on capacity development, operator certification, infrastructure, funding, and technical assistance. All of them are designed to ensure the customers of small systems receive safe and affordable drinking water. The small pot of money set aside for technical assistance distributed through grantees, such as the National Rural Water Association and the Rural Community Assistance Partnership, have been incredibly important for small assistance. And I am glad that both NRWA and RCAP represented here today to discuss any changes that might be needed to strengthen the program.    I expect we are going to hear that the need for technical assistance far outpaces the funding available. And I hope my colleagues on the other side of the aisle will join with us to ensure that this program is given sufficient funding to meet the requirements of small systems.    But the same is true for the drinking water State Revolving Fund or SRF. If we really want to ensure that small and rural systems are providing safe and affordable water, we should reauthorize the whole SRF, not just the technical assistance piece. The technical assistance piece is less than 2 percent of the whole pot, so we should not lose sight of the bigger picture.    For disadvantaged communities, the 1996 amendments allow States to provide additional support through the SRF and most funding from the SRF goes out as loans. But for disadvantaged communities, States are authorized to provide zero interest loans or even principal forgiveness. For small and rural systems with small customers bases, this is incredibly important.    But unfortunately States are not currently required to provide this assistance to disadvantaged communities and not all do. This assistance may become even scarcer in coming years as the overall drinking water infrastructure need continues to grow faster than the available funding.    When this subcommittee moved legislation to address toxic algae, I expressed my hope that it would be the start of broader drinking water work. And I am pleased that the chairman is now addressing another important drinking water issue. But as I said at the hearing on the toxic algae, our responsibility on drinking water is comprehensive. Small systems serve only 8 percent of the population. We should absolutely do what is necessary to ensure they have safe water, but we should also protect the other 92 percent and means reauthorizing the SRF, ensuring that fracking is done safely, ensuring source water protection, addressing drought and planning, of course, for climate change.    So I look forward to more drinking water hearings and more bipartisan conversations about some legislative solutions.    And thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -100,9 +88,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Gomez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gomez. Thank you, Mr. Chairman.    Good morning, everyone, Ranking Member Tonko, and members of the subcommittee.    I am pleased to be here today to discuss the infrastructure needs----</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t xml:space="preserve">    Mr. Shimkus. And I know the Hudson. I lived in a small technical school down south on the river, the West Point school for wayward boys. So that is my alma mater and so I know the river and the valley real well. So welcome, and we are glad to have to you.    You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Keegan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keegan. Thank you.    Good morning, Mr. Chairman and members of the subcommittee.    And my congressman, good morning, Congressman Tonko.    I am Joe Keegan, the mayor of a charming little village a few miles south of Albany, New York, on the banks of the Hudson River called Castleton-on-Hudson. We have a population of approximately 1,500 of the best people anywhere. My village is a member of the New York Rural Water Association, a nonprofit organization of small and rural communities throughout the State, which is somewhat responsible for my appearance here today. I got a call from the association on Monday asking about my availability, and I just happened to be traveling back to Castleton last night from a trip related to my day job.    My village is very typical and representative of communities that have water supplies in New York and the rest of the country. According to the U.S. Environmental Protection Agency, the State of New York has 2,305 community water systems, 88 percent of those serve populations under 3,300. All of the small community and water and sewer utilities have to comply with the same regulations, testing, and certifications as the biggest cities, but with only our very small rate payer base. And we have to operate, maintain, and update our water infrastructure with very small budgets.    As a small community mayor, my number one concern and worry is drinking water and number two is wastewater. Everything else is a distant third. If there is a problem with the drinking water, it has to be addressed immediately, middle of the night, middle of the winter. It doesn't matter when. Every citizen and especially the most vulnerable depend on the safety of the water, including families with infants, schools, our nursing homes, and people with compromised immune systems. We can't have any contamination of the drinking water. Our sewer system also needs to function properly to avoid any possibility of a sewage spill or sewage backup into people's homes.    I would say to you that this really does keep me up at night. Congressman Tonko knows that, right now, our part of the State is buried in snow. Just last week, the frost penetrated the ground so deeply that we experienced two ruptures in our water mains that are 5 to 6 feet underground. This forced us to issue a boiled water advisory where we have to tell families to boil water as well as contact all the schools. They have to cover their water fountains, the press, the nursing home, et cetera. I actually call as many citizens as I can by robo-call. When something like this occurs, we manage the situation around the clock, locating equipment to excavate the frozen ground, repairing the waterline, getting the tests to the lab, and waiting for the all-clear results to lift the boil water order.    We appreciate the assistance of the subcommittee and Congress in helping us protect the public and successfully operate the public drinking water and wastewater supply through the various funding programs and the on-sight technical assistant initiatives. My village relies on this assistance.    I want to thank Congressman Tonko for sponsoring the Assistance Quality and Affordability Act of 2014 in the last Congress. Small and rural communities support your legislation because it enhanced the current Drinking Water State Revolving Fund by further targeting the funding to communities most in need. We do need help.    Everything from financing, regulations compliance, and the various programs are very complicated for small communities. We don't have financial professionals on staff and often don't understand many of the funding processes.    We currently have needs approaching $3 million for our wastewater system. We need new aeration tanks, new sludge drying equipment, and new pumps as our facility is over 30 years old. We need to stop rainwater from leaking into the system and overtaxing our capacity.    My water operator is constantly explaining to me the need for these upgrades and his concerns of possible failure. However, we don't really have a way to finance it. It would triple the sewer rates to take out a loan for that much. You can see in the picture at the back of my testimony that we have some very old drinking water pipes that need updating or replacing at a substantial cost. The one in the picture is stamped with a date from the 19th century, and they are still in the ground in parts of the village.    We are concerned that, without more waterline replacement, we are vulnerable to more breaks and crisis. And you can see the other picture of a tuberculated pipe we recently dug up that is loaded with corrosion and deposits to the point it is almost occluded.    In my remaining time, I just want to emphasize the essential assistance we receive from the New York Rural Water Association and explain why it is so helpful. The association has circuit riders that are on call throughout the State that will come and assist us immediately, including evenings and weekends. The circuit riders are all experts in the technical side of water operations. Just a week ago, we called for help for locating a water leak from a ruptured pipe that could have occurred over any part of 100 foot waterline. The circuit rider has specialized equipment that can detect noises and vibrations underground to locate the exact location of a break.    In addition, my operators receive 90 percent of the training needed to retain their operator's licenses from the New York Rural Water Association. We depend on them just like every other small community.    Mr. Chairman, I have a lot more to say, but you have been very charitable with your time and attention to small and rural communities.    And on behalf of every small town elected official, we are grateful. Thank you for hearing from us, and I will answer any questions later.</t>
   </si>
   <si>
@@ -133,27 +115,18 @@
     <t xml:space="preserve">    Mr. Shimkus. We will call the hearing back to order, and now I will turn to Mr. K.T. Newman on behalf of the Rural Water Association.    Sir, you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Newman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Newman. Good morning, Mr. Chairman and members of the subcommittee. Thank you for the opportunity to testify here today.    My name is K.T. Newman, and I have been working for or in small and rural community water systems in the Mississippi Delta for nearly 20 years. I first started out as a small city water manager in my hometown of Vaiden, Mississippi, which has about 1,000 homes. I then worked for the Mississippi Rural Water Association as a circuit rider for 10 years. In this capacity, I visited every one of the Delta's approximately 500 small communities to help them with their water and sewer problems. Currently, I am working for about two dozen small Delta communities assisting them with their water and sewer utilities.    I am honored to be accompanied here today by the mayor of one of these small towns, Mayor Everette Hill from Como, Mississippi. The town of Como has a population of approximately 1,200 persons. The mayor's challenges are compounded by the fact that as a small-town mayor he has a full-time job as a truck driver and has to handle much of the city's issues on his free time. His community has little professional staff because they simply can't afford it.    In Como, the wastewater system is failing because of its age and inability to meet its current EPA treatment. The cost to update Como's sewer system to be compliant is approximately $2 million. The Como drinking water system needs an additional $1 million in upgrades. The town was recently fined by the Department of Environmental Quality for failure to comply with their wastewater discharge permit. Currently, the Como wastewater treatment facility is actually discharging only partially treated wastewater due to failure of the current treatment works.    Como is just like thousands of other small communities in the Delta and the other States. They need a grant-rich infrastructure program like the USDA's rural development program, and they need access to someone they can trust for technical advice, on-site assistance, and help with managing the funding application process.    Mississippi has 1,234 regulated public water systems. Only two serve populations over 50,000 persons, and only 59 serve populations over 10,000 persons. More training needs to be provided to small town mayors like Mayor Hill so that multimillion-dollar upgrades that will most certainly tax the ratepayers of these communities can be more readily understood and communicated to these residents who will ultimately be responsible for bearing the financial burden.    Recently, many of the small communities in the Delta have received violations for a relatively new EPA regulation referred to as the disinfections byproduct rule. These byproductsare a result of disinfecting their water to make it safe to drink. If these small communities limit or reduce the disinfective levels of the water, they will most certainly comply with this EPA regulation, but the water may no longer be safe to drink. Once the disinfection byproduct rule is violated, many small communities are forced to spend limited resources to report these violations to the consumers.    In the town of Shaw, population 1,900 persons, the community was under a boil water order for over 6 months because of a broken chlorinator needed to disinfect the drinking water. The local schools had to buy bottled water for 6 months. After they called the Mississippi Rural Water Association's circuit rider, Tom Abernathy, they were able to come up with a plan to pay for a new chlorinator, revise the town's billing program--able to come up with a plan to pay for a new chlorinator, revise the town's billing program to accurately assess the water used by citizens, and receive the payments, train the new mayor and town council, get the town's credit stable and secure some emergency State Revolving Fund financing.    In closing, whenever a small community is facing a compliance issue, the complication of a new EPA rule, a line break that they can't find that is causing people to lose water service, an emergency from a storm or power loss, we all call the circuit riders to tell us what it means and what to do. They have developed a trust relationship with small communities in their State that know how to fix things and are willing to come to your town day, night, or weekend.    Thank you for the opportunity to testify here today. Mayor Hill and I are available for questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much, and welcome, Mayor Hill. It is good to have you with us also.    I would now like to turn to Mr. Bobby Selman on behalf of the Mississippi Rural Water Association.    And you are recognized for 5 minutes.    Thank you.</t>
   </si>
   <si>
-    <t>Selman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Selman. Good morning, Mr. Chairman and members of the subcommittee. It is an honor to appear before you today.    My name is Bobby Selman. I am a certified drinking water and wastewater operator in the State of Mississippi with an engineering background from Mississippi State. I have been working in the water world for 25 years, starting in my hometown in Lawrence County. I still work for the Lawrence County Water Authority in addition to 12 other small communities and rural water associations.    I want to thank my Congressman, Gregg Harper, for his support and assistance to all the over 150,000 small public water systems across the country for sponsoring the Grass Roots Rural and Small Community Water Systems Assistance Act. Representative Harper's bill directs the U.S. Environmental Protection Agency to prioritize the type of technical assistance that small communities find is most beneficial.    The rural water type of on-site technical assistance is what all the small communities in Mississippi and the other States rely on for help with compliance, operations, emergencies, line breaks, loss of water, setting rates, and training for operator certification. I am told that Congress funds the EPA's internal management budget by hundreds of millions of dollars every year. Small and rural communities want Congress to know that the only benefit we get comes from the small portion of the EPA funding that is directed to on-site technical assistance provided by what we call circuit riders.    What small communities do when they have a question or water issue is call their local circuit rider that they know, trust, and know can give them clear answers. These circuit riders often come immediately on site to small communities and teach them how to fix their problem. There is just no one else out in the field at the local level providing this essential help.    After Katrina, two of my small communities in Simpson County were devastated. Each served approximately 2,500 people, and they were without power and water. People in communities can get by without power for a while, but not without water. I called the Mississippi Rural Water Association circuit riders and they found emergency generators for me and delivered them to the communities at no charge.    Since the circuit riders know everybody in the State, they were able to borrow some generators from northern communities not impacted by the hurricane and had the generators delivered to get the drinking water and sanitation restored immediately. The circuit riders also had the technical know-how to rig the generator's electrical systems, size the right voltage, and even drive a backhoe if needed to clear the streets and dig up ruptured lines. All of this type of assistance is essential to restore a water supply in an emergency.    I called a circuit rider out to help me at a Double Ponds Water Association, a community of about 1,000 homes to find a line break causing a loss of water for many homes. The circuit rider came with advanced radar equipment that can precisely identify the location of the break, which on this day happened to be out in the woods. By funding the circuit riders, Congress is allowing all small and rural communities to share this technical resource that no one community can afford on their own. We think it is the best use of our Federal water environmental dollars.    With the federalization of the operator certification under the Safe Drinking Water Act of 1996, State rural water associations have become the main source of training for operators and the main source of continued education credits which are needed every year to maintain this certification.    Many parts of rural America have seen industry move on, leaving behind depressed economies. In my region the garment industry moved south after NAFTA. When this happens, raising rates becomes overly burdensome. In the town of New Hebron, Mississippi, with just over 400 people, we are now being told that we need to comply with a new EPA wastewater discharge permit that will cost $2 to $3 million.    I will close with some comments on the Federal water infrastructure programs, namely the EPA State Revolving Funds and the USDA Rural Development Grant and Loan Program. We are very appreciative for Congressional funding of these initiatives, and realize the funding constraints in Congress and the Nation. Notwithstanding the curtailment Federal funding, the regulatory burden continues to increase and become more complex.    We urge you to emphasize grants in these funding programs. Low interest loans often don't help the communities facing the most severe hardship from Federal compliance, leaving the loan funds to be used for compliance with greater ability to afford financing. We are very grateful for the funding assistance. It has allowed many rural and small communities to have access of drinking water and sanitation that would otherwise not have been able to afford without the Federal assistance, and we want to be partners in the effort to make the initiative as efficient and successful as possible.    Thank you very much, Mr. Chairman, and I am eager to answer any questions at the appropriate time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Our last but not least panelist is Mr. Robert Stewart, who is the Executive Director of the Rural Community Assistance Partnership.    Welcome, sir, and you are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Stewart</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Stewart. Thank you, Chairman Shimkus, Ranking Member Tonko, and members of the committee.    I think the previous witnesses and you all have done a excellent job of sort of framing the issue. As someone that has worked 20 years with hundreds of communities in Texas, both for the Rural Community Assistance Partnership and the Rural Water Association, and someone who has directed a national program for 10 years, I am here to tell you that the needs of small communities are many, the resources are limited, but I tell you, the dedication and the determination of small communities to provide their citizens with the best possible water is strong and undiminished.    I want to--I am sure everyone knows a little bit about the Rural Community Assistant Partnership. It is in my testimony, and I won't repeat things that are in my testimony. I just wanted to sort of make a few points that have been touched on but maybe I could amplify a little bit.    One is the access to capital. I think there is a real issue in small communities in accessing the financial resources that they need in order to build the infrastructure, extend lines to new customers. I believe Mr. Gomez talked a little bit about access to the municipal bond market. For small communities, this is just not an option at all. We find that there is 53,000-some-odd community water systems in the country. Perhaps 4 percent of them have the ability to access the municipal bond market.    So what they are left with is the two primary Federal financing programs, being the Drinking Water SRF and USDA Rural Developments Water and Environmental Programs, and so, you know, it is really critical that those programs continue to be supported in a robust manner. We work a lot with rural development and their water environment program. They are the primary lender in rural communities. They have some 18,000 plus loans out with small water systems, and as you probably know, there is virtually no default on these loans. We take these matters very seriously in repaying the loans that are made to small communities.    One of the things that RD has going for them is they have field staff in every State. They have the ability to work directly with the communities. The communities know their local folks in the district and State offices, and it is just a more cooperative and easier way to get funding through rural development.    Rural Development also funds both the Rural Water Association and RCAP to do technical assistance and training. A lot of the staff that work for me around the country work through the application processes and all the requirements that are needed in order to get a loan from Rural Development.    EPA State Revolving Funds are also a very important part of the financing scheme for small communities. I think all of you know that as a result of the 1996 amendments to the Safe Drinking Water Act the State revolving program was formed, and it was mainly to deal with compliance issues, and if you look at who is out of compliance or where the most health-based compliance issues are, 96 percent of those are from small communities. So you would think that, you know, most of the money or a big portion of the money would go to the communities, whether they are urban, rural, small or large that have the compliance issues, but as you can look at EPA's own numbers, perhaps 25 percent of the funding actually goes to the small communities in this country.    You know, we would think that a larger amount of money from the SRF program should be dedicated to economically disadvantaged and small rural communities.    EPA does have a--has a program as a result of the 1996 amendments that funds the technical assistance kind of a program that both Rural Water and RCAP have advantage of. It is not funded at the authorized level that was authorized 20 some years ago, and so we would hope that you would consider some additional resources for that particular program.    And I know one of the things you are looking at is what else can be done? You know, what else can we do to work with small communities. There are a lot of other options. One of which both Rural Water and RCAP work on is the sharing of services. How can small communities get together, share an operator, share a manager, share purchasing. How can we look at possibilities that actually--you know, combining systems if they are close. It is very difficult, and one of the problems the funding agencies have is that it easier for them to make a $10 million loan than 10 $1 million loans. So that sort of hurts small communities even more. With reduced staffing levels in both EPA and RD, there is an emphasis more for the larger loans, which I think adversely affects small communities even more.    So I think the regionalization approaches where appropriate are important, but the only way those are going to happen is that if you have people like the circuit riders and the technical assistance providers that work for RCAP that are out working with those communities on a day-in/day-out basis to sort of work through those kind of issues.    One of the other things real quickly because my time is running out is you talk about tools. I would like to give credit to EPA for developing the variety of tools and for working with Rural Development on tools. Assess management tools, tools to look at sustainability for communities. Again, tools are important to be developed for use by small communities, but it takes someone in the field like a Rural Water or an RCAP person to actually bring those tools out to these communities, and if it--I would also--if maybe this could be handled in the questions, I know you are interested in WIFIA and some of the other alternative financing programs. I would be glad to talk about that also.    My time is up, though, so I really appreciate the opportunity to be here with you today.</t>
   </si>
   <si>
@@ -283,9 +256,6 @@
     <t>400160</t>
   </si>
   <si>
-    <t>Gene Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman for--both you and Ranking Member Tonko for holding the hearing on the drinking water needs of smaller communities.    I represent a very urban district in unincorporated and incorporated Houston, Texas, and we have some of the same problems in our suburban areas that will not be annexed by our cities because the property tax could never cover the cost, and yet they are literally south of Intercontinental Airport in Houston and areas in that district, and over the years in Texas, we have received money from the State Revolving Fund. In fact, partnered with using it in some of these communities to provide fresh water but also partnering with the county because--for sewer service.    But it bothered me that last year Texas received the lowest amount of money from the State Revolving Fund of $53 million, and that goes back to 1997, and that is not anywhere nearly accounting for inflation. The fact is deeply troubling because of the significance in growing drinking water infrastructure needs of Texas in general, and, like I said, a very urban district. If it is in the city, they will get--they will do it, but this area is not attractive to be annexed, and it is very poor communities, and that is where we need the help. Their septic tanks fill, and, again, a very urban area and very shallow water wells. That is why this hearingis important.    My first question is, Mr. Newman, Mr. Selman, and Mr. Stewart, do you believe that the Congress should reauthorize the drinking water State Revolving Fund this year?</t>
   </si>
   <si>
@@ -367,9 +337,6 @@
     <t>400285</t>
   </si>
   <si>
-    <t>Tim Murphy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you all. I will talk a little fast. See what I can get in.    This is for Mr. Selman or Mr. Newman, and thank you all for being here. Very informative panel.    Engineers who serve in some of these rural water systems in my district, for example, in Greene County in my southwestern Pennsylvania, very rural area, but they tell me that States oftentimes impose their own drinking water requirements which are far more strict than the EPA standards set forth in the Drinking Water Act.    Could you please provide some examples for me where some of these State-imposed requirements that you have seen in your community or communities go beyond or differ from the EPA standards?</t>
   </si>
   <si>
@@ -457,9 +424,6 @@
     <t>412256</t>
   </si>
   <si>
-    <t>Robert E. Latta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you, Mr. Chairman, and to our panel, thank you very much for being here.    This kind of strikes home to me because as a county commissioner in Wood County--and from Wood County in Ohio for 6 years and handled a lot of water and sewer issues, and also we created a regional water and sewer district when I was the commissioner to put things together because my home county was over 600 square miles. We had all or part of five cities, 21 villages, 19 townships and a lot of unincorporated area.    And it is important to--and hearing all of you brings back memories of over 20 years ago that I used to sit in a lot of meetings and hear people talk about because they are really very important issues. In Ohio alone, I think we have got about $21 billion right now that we are looking at that we need in infrastructure improvements from water to wastewater and storm water, and so what you are saying here today is very, very important, and really appreciate you being here because I can commiserate with what you have all said, and I have also been working on legislation for at least one session to try to help on the wastewater side to help rural communities.    But if I could, because I take it you all had very good testimony today, and again--and appreciate you being here, and if I could start with Mr. Gomez, you know, you--I think it is important because one of the things that we have been hearing out here is there is a shortage of dollars out there that we have, especially--and when you are talking about our rural areas.    Could you discuss the relationship between the EPA and USDA programs and whether they are--you know, there are overlaps out there and what about the efficiencies or synergies that could occur if we were really looking at these programs and make sure that we didn't have duplication out there or anything like that.</t>
   </si>
   <si>
@@ -487,9 +451,6 @@
     <t>412487</t>
   </si>
   <si>
-    <t>David B. McKinley</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    Going to go in several directions with this, but I have got--we have all heard a lot of horror stories, and I have got mine in my district. I have got a little town in West Virginia. I think we have got a slide, perhaps, of a water line that they are--they have been facing--could we get that up? There it is.    It shows how just colluded the line is, that they can't--they have applied--however, knowing this, they have applied 10 times to try to get money, and they have been rejected 10 times since 2002. It just isn't--people--we just don't have the money in the SRF, and what I was particularly pleased about was the President this year actually maintained the--for the most part, the funding from the previous year as compared to what we have seen in the past where the year before he made a 40 percent reduction in the SRF because they said the priority was climate change, and we have heard that mentioned from the other side of the aisle. They thought climate change was a higher priority than funding our water problems in rural America.    I have got--I am curious. So I hope we--I hope someone has seen the light with that, but the--I am confused a little bit about the regulatory burden because it--particularly a lot of you have been talking--this hearing is about rural America, not what has been offered is we got to be concerned about the big cities.    I am worried at this hearing that we stay focused on rural America because here is just a listing of some of the rules--I don't know whether these people--I have designed a lot of sewer and water lines.    So as an engineer I am quite familiar with this, but we have got things that a small city has to take care of is the arsenic rule, the chemical rule, lead and copper rules, the uranium rule, the Federal backwash rule, the groundwater rule, the enhanced surface water rule, the cert, both I and II, the disinfect byproduct rule, 1 and 2, the surface water rule, total coal--I could go on and on.    These are rules that small cities have to deal with just as well as a larger community of 100,000 or 200,000. So my--and I have got three other communities that they are just trying to find money for operations, let alone install--this one community is--they are working on--like, one of you said up there, a 19th century system. They are trying to replace it with that water line right there.    How can we get money for operations? Because we have got one community in West Virginia--they are dumping raw sewage into the Potomac River because they don't have money to be able to do their maintenance work that they have to do. We have got others that--I got another community, they are getting their water through water buffaloes pouring into a cistern so that they have some water with that----    This is 2015 in America, but yet we have an administration that until this year every year for the last 3 years has been reducing money to the SRF. What are we failing--how are we failing our country when we don't put enough money into the SRF? How do--because that is what I have heard many of you say, we need to put more money into that program. What do we have to do? How much more money?    Can any of you suggest where we have to go with that? And I would also add, should we be prioritizing the SRF money for rural communities so that we are weighting them a little more heavily than the big cities? Mr. Stewart, does----</t>
   </si>
   <si>
@@ -511,9 +472,6 @@
     <t>412460</t>
   </si>
   <si>
-    <t>Bill Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    I represent Appalachian, Ohio, and I don't have to tell you folks probably how rural that is. I hear the horror stories, many of which you have just heard. I could cite similar cases that my colleague from West Virginia, Mr. McKinley did.    Mr. Selman, long before I was elected to Congress, I served 26 years in the Air Force, and I was stationed in Columbus, Mississippi, and you know how rural that area is. So I have seen this for a long time.    Mr. Gomez, does the GAO track and can you tell us in regards to all urban and rural systems how many municipalities have their systems charge the true cost of providing water to their customers? In other words, how many of them are operating in the red?</t>
   </si>
   <si>
@@ -605,9 +563,6 @@
   </si>
   <si>
     <t>412555</t>
-  </si>
-  <si>
-    <t>Kevin Cramer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cramer. Thank you, Mr. Chairman from Illinois and ranking member from New York, for acknowledging rural America and for reminding us there are other rural places that are better known for their urban centers. It is good to have an alliance.    My colleagues or my constituents with the North Dakota Rural Water Systems Association would be very proud of all of you. You have done a great job today, and I felt right at home even with the unusual accents. But it is a reminder that there are some things we work together on and that are very important.    And I won't--you know, I won't delay except to tell you that we hear a lot--I hear a lot about the circuit rider program from our folks, and I think you raise a very important issue. And I think that it is incumbent upon us now, as policymakers and eventually appropriators, to look for opportunities to prioritize some of the programs you talked about within the context of the entire act. And given the constraints, the financial constraints we have, we do have to be a little bit creative, but certainly we can re-prioritize.    I want to just ask for maybe a little bit of elaboration on one point. I thought the GAO report was fantastic frankly. And I think that it was--it is nice to see the alphabet soup, as my constituents often refer to it, and see that there is both recommendation, findings, and then response by multiple agencies that have a tendency perhaps to create extra burden by virtue of requiring, you know, sort of uniform processes, but not in a uniform way. And so the uniform preliminary engineering report template, I think, is a great tool.    And I think at a time when our constituents really are looking for an efficient, effective Government, this is a good example. And I raise it because I wonder how many more times we could duplicate this throughout the system. One of the frustrations I have seen in the last 2 years here is, not just with EPA and USDA rural developments, certainly, in fact, you know, there are many others have more. I just hope that we could, as a House, as a Congress, and as public officials at every level, look for more of these types of opportunities where the public could go, wow, that makes perfect sense. Because right now they look at it--and I am sure you all do and say, ``You mean I have to hire the engineering firm to do the exact same thing all over again for another agency and pay them this same.''    So, I guess, mainly what I want to say is thanks for that. I will want to be monitoring that very carefully to see how it works out, and I know you will as well, Mr. Gomez, because I think therein lies the nuggets of opportunity to demonstrate functionality of Government in a way that people expect of us and that we haven't probably done so well.</t>
@@ -1027,11 +982,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1053,11 +1006,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1077,13 +1028,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1105,11 +1054,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1129,13 +1076,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1157,11 +1102,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1181,13 +1124,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1209,11 +1150,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1233,13 +1172,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1261,11 +1198,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1285,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1313,11 +1246,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1337,13 +1268,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1365,11 +1294,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1389,13 +1316,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1417,11 +1342,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1443,11 +1366,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1467,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1495,11 +1414,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1519,13 +1436,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1547,11 +1462,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1571,13 +1484,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1599,11 +1510,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1623,13 +1532,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1651,11 +1558,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1675,13 +1580,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1703,11 +1606,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1727,13 +1628,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1755,11 +1654,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1779,13 +1676,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>27</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1807,11 +1702,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1831,13 +1724,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1859,11 +1750,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1883,13 +1772,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
-      </c>
-      <c r="G35" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1911,11 +1798,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1935,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1961,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1987,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>19</v>
-      </c>
-      <c r="G39" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2013,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2039,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>19</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2065,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2091,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2117,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2143,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>19</v>
-      </c>
-      <c r="G45" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2169,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2195,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2221,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2247,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>19</v>
-      </c>
-      <c r="G49" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2273,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
-      </c>
-      <c r="G50" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2299,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>19</v>
-      </c>
-      <c r="G51" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2325,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2351,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>19</v>
-      </c>
-      <c r="G53" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2379,11 +2230,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2403,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2429,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2455,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2481,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2507,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2533,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2559,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2585,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2611,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2639,11 +2470,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2663,13 +2492,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2689,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2715,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2741,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2767,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2793,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>27</v>
-      </c>
-      <c r="G70" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2819,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>27</v>
-      </c>
-      <c r="G71" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2845,13 +2660,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2873,11 +2686,9 @@
       <c r="F73" t="s">
         <v>11</v>
       </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2897,13 +2708,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
-      <c r="H74" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2925,11 +2734,9 @@
       <c r="F75" t="s">
         <v>11</v>
       </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2949,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2975,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3001,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3027,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3053,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>27</v>
-      </c>
-      <c r="G80" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3079,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>88</v>
-      </c>
-      <c r="G81" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3105,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>27</v>
-      </c>
-      <c r="G82" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3131,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-      <c r="G83" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3157,13 +2948,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3183,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
-      </c>
-      <c r="G85" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3209,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
-      </c>
-      <c r="G86" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3235,13 +3020,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>88</v>
-      </c>
-      <c r="G87" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3261,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>27</v>
-      </c>
-      <c r="G88" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3287,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>88</v>
-      </c>
-      <c r="G89" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3315,11 +3094,9 @@
       <c r="F90" t="s">
         <v>11</v>
       </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3339,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>88</v>
-      </c>
-      <c r="G91" t="s">
-        <v>89</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3367,11 +3142,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3391,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3417,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
-      </c>
-      <c r="G94" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3443,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3469,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3495,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3521,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>27</v>
-      </c>
-      <c r="G98" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3547,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3573,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>27</v>
-      </c>
-      <c r="G100" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3599,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3625,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
-      </c>
-      <c r="G102" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3651,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
-      </c>
-      <c r="G103" t="s">
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
         <v>117</v>
-      </c>
-      <c r="H103" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3677,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
-      </c>
-      <c r="G104" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3703,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>116</v>
-      </c>
-      <c r="G105" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3729,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>27</v>
-      </c>
-      <c r="G106" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3755,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>116</v>
-      </c>
-      <c r="G107" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3781,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3807,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
-      </c>
-      <c r="G109" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3833,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
-      </c>
-      <c r="G110" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3859,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
-      </c>
-      <c r="G111" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3885,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
-      </c>
-      <c r="G112" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3911,13 +3644,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>116</v>
-      </c>
-      <c r="G113" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3937,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
-      </c>
-      <c r="G114" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3963,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>116</v>
-      </c>
-      <c r="G115" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3989,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
-      </c>
-      <c r="G116" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4015,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
-      </c>
-      <c r="G117" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4041,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>27</v>
-      </c>
-      <c r="G118" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4067,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>116</v>
-      </c>
-      <c r="G119" t="s">
-        <v>117</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4095,11 +3814,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4119,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>146</v>
-      </c>
-      <c r="G121" t="s">
-        <v>147</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4145,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4171,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>146</v>
-      </c>
-      <c r="G123" t="s">
-        <v>147</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4197,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>27</v>
-      </c>
-      <c r="G124" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4223,13 +3932,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>146</v>
-      </c>
-      <c r="G125" t="s">
-        <v>147</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4249,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>27</v>
-      </c>
-      <c r="G126" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4275,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s">
-        <v>147</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4303,11 +4006,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4327,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>156</v>
-      </c>
-      <c r="G129" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4353,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>27</v>
-      </c>
-      <c r="G130" t="s">
-        <v>45</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4379,13 +4076,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>156</v>
-      </c>
-      <c r="G131" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4405,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>27</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4431,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>156</v>
-      </c>
-      <c r="G133" t="s">
-        <v>157</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4459,11 +4150,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4483,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>164</v>
-      </c>
-      <c r="G135" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4509,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>27</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4535,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>164</v>
-      </c>
-      <c r="G137" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4561,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>27</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4587,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>164</v>
-      </c>
-      <c r="G139" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4613,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>27</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4639,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>164</v>
-      </c>
-      <c r="G141" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4665,13 +4340,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>27</v>
-      </c>
-      <c r="G142" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4691,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>164</v>
-      </c>
-      <c r="G143" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4717,13 +4388,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>27</v>
-      </c>
-      <c r="G144" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4743,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>164</v>
-      </c>
-      <c r="G145" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4769,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>27</v>
-      </c>
-      <c r="G146" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4795,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
+        <v>151</v>
+      </c>
+      <c r="G147" t="s"/>
+      <c r="H147" t="s">
         <v>164</v>
-      </c>
-      <c r="G147" t="s">
-        <v>165</v>
-      </c>
-      <c r="H147" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4821,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
-      </c>
-      <c r="G148" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4847,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>164</v>
-      </c>
-      <c r="G149" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4873,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>27</v>
-      </c>
-      <c r="G150" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4899,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>164</v>
-      </c>
-      <c r="G151" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4925,13 +4580,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>27</v>
-      </c>
-      <c r="G152" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4951,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>164</v>
-      </c>
-      <c r="G153" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4977,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>27</v>
-      </c>
-      <c r="G154" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5003,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>164</v>
-      </c>
-      <c r="G155" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5029,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>27</v>
-      </c>
-      <c r="G156" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5055,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>164</v>
-      </c>
-      <c r="G157" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5081,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>27</v>
-      </c>
-      <c r="G158" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5107,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>164</v>
-      </c>
-      <c r="G159" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5133,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>27</v>
-      </c>
-      <c r="G160" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5159,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>164</v>
-      </c>
-      <c r="G161" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5185,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5211,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>164</v>
-      </c>
-      <c r="G163" t="s">
-        <v>165</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5239,11 +4870,9 @@
       <c r="F164" t="s">
         <v>11</v>
       </c>
-      <c r="G164" t="s">
-        <v>12</v>
-      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5263,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>196</v>
-      </c>
-      <c r="G165" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5289,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>27</v>
-      </c>
-      <c r="G166" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5315,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>196</v>
-      </c>
-      <c r="G167" t="s">
-        <v>197</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5343,11 +4966,9 @@
       <c r="F168" t="s">
         <v>11</v>
       </c>
-      <c r="G168" t="s">
-        <v>12</v>
-      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5367,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>19</v>
-      </c>
-      <c r="G169" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5395,11 +5014,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5421,11 +5038,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95493.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95493.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Shimkus</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Shimkus. I would like to call the hearing to order and recognize myself for an opening statement.    Today's hearing focuses on challenges facing rural water systems. I congratulate and thank the ranking member of the subcommittee Mr. Tonko and the vice chairman of the subcommittee, Mr. Harper, for their bipartisan work to raise the profile of this issue before this subcommittee.    According to the Census Bureau, approximately 27 percent of the U.S. population lives in rural areas. The smallest water systems account for 77 percent of all systems. As someone who proudly represents communities in small town in rural America, I am glad we have bipartisan interest in tackling this subject.    Under the Safe Drinking Water Act, small and rural drinking water supply systems are subject to a number of drinking water regulations issued by EPA. These requirements include systems monitoring, treatment to remove certain contaminants, and reporting. Addressing these matters requires technical, managerial, and physical capabilities that are difficult to develop and are often beyond the capacity of these towns to afford on the same scale as urban centers, particularly when it comes to regulatory compliance.    It is ironic that these communities where residents work hard to support their families and their local governments, while often earning wages below those of their counterparts in the more urbanized area, face per-customer compliance costs and demands that are disproportionate to many larger communities. Sometimes it is just a matter of having the ability to keep up with the red tape.    While I am sure we will explore the funding mechanisms under EPA, the Agriculture Department, and other Federal agencies, it is not just a matter of throwing more scarce money at the problem. Rather, it is about smartly assessing what the needs are for these systems, prioritizing the importance of those needs, finding out whether the current system can be improved to remove unnecessary burdens and eliminate bureaucracy, and examining whether voluntary or other collaboratory efforts can aid where Congress cannot.    I want to thank our witnesses who have put their lives on hold to battle the elements and join us. People who live in rural communities deserve every bit of the water quality and technical resources that folks who lives in densely populated urban centers do. We look forward to your wisdom in helping us understand these issues.    Thanks again to Mr. Tonko and Mr. Harper for their work on this issue. I know Mr. Tonko has an interest in addressing some drinking water issues, and I appreciate the work he and Mr. Harper are doing to break the ice with this first effort.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Gregg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Harper. Thank you, Mr. Chairman.    And I appreciate you holding this hearing on the needs of drinking water systems in rural and smaller communities.    Like you and many other members of Congress, I represent a rural district where many of my constituents get their drinking water from smaller cities, towns, and water associations.    According to the National Rural Water Association, more than 90 percent of the community water systems across the United States serve a population less than 10,000 individuals. These smaller communities do an incredible job of providing our constituents with clean, safe drinking water, but are often at a disadvantage because of economics of scale and a need for more technical expertise.    I know that this as an important issue to you, Mr. Chairman and the ranking member, and I thank you for the opportunity to continue working on legislation to ensure our constituents get the help and clean water they need.    I would like to say welcome to my fellow Mississippians, Mr. Newman, Mr. Selman, and thank them for providing their insight to the subcommittee today.    Mr. Chairman, thank you again for your commitment on this issue, and I yield back.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Well, thank you and good morning to our witnesses.    And thank you, Chair Shimkus, for holding this important hearing on what is a very vital topic and appreciate the opportunity to work in partnership with our Vice Chair Harper as we address, again, a very important phenomenon for all of our communities across the country.    We have all heard the often repeated statistics about rural and small water systems. More than 94 percent of the 150,000 public drinking water systems in the United States serve fewer than 3300 customers. Although small systems dominate in numbers, they serve just about 8 percent of our population overall. But to households and businesses across this great country, the key feature they are interested in is not the size of their water utility. It is reliable, daily delivery of safe clean water at an affordable price to their homes and businesses that matters.    We will hear from managers of these small systems here this morning. And what we will hear is that they cannot simply pass all of their costs for technical assistance, infrastructure repairs, tapping into new water sources, or keeping pace with drinking water regulations onto their customers with ongoing rate increases. The rate bases for these small systems are too small to cover the costs of these essential materials and services. It is long past time for us here in Congress to provide robust financial support for our water utilities.    In addition to support through traditional funding mechanisms, the SRF, and grant programs, we should also examine alternative financing mechanisms, new technologies, and potential new partnerships that will enable every dollar to go forward in reducing the backlog of infrastructure projects and in ways reducing operating costs through efficiency, both water and energy.    I am very pleased to have Mayor Keegan here this morning to represent the small water utilities that serve people throughout our State, New York. Mayor Keegan and our witnesses from Representative Harper's district in Mississippi will provide us with a glimpse of the challenges they face each and every day in their efforts to deliver clean safe drinking water to their public. They do a remarkable job in keeping clean water flowing to every home, every day.    Water infrastructure is essential. It is the only way to state it. We can afford to do this. We cannot afford to delay these investments any longer. Public health, community viability, and economic vitality all rest on the foundation of a sound infrastructure. We cannot maintain global leadership and compete in a 21st century global economy with 20th century infrastructure held together with a hope and a prayer.    We have an excellent panel with us today. Thank you for taking time away from your important work and busy schedules to be here to do your messaging this morning.    And thank you, Mayor Keegan, Mayor Newman--Mr. Newman, Mr. Selman, and Mr. Stewart for the expertise and dedication you will demonstrate to your communities--that you demonstrate to your communities each and every day at work. I look forward to your testimony and to working with each and every one of you as we move forward.    And I am very pleased to working with the chair of the subcommittee and with our vice chair, Representative Harper, and other members of the subcommittee on this very important issue.    With that, I thank you.    And, Mr. Chair, I yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Pallone</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Pallone. Thank you, Mr. Chairman, Mr. Tonko.    Customers of all public water systems, large and small, wealth and disadvantaged deserve safe affordable drinking water. Unfortunately, public water systems across the country are facing staggering infrastructure replacement costs and emerging threats, including climate change.    Resource is essential to any conversation about safe drinking water. Much of our Nation's drinking water infrastructure is well beyond its useful life and in desperate need of replacement. Investing in drinking water infrastructure protects public health, creates jobs, and boosts the economy. This is particularly important in the case of small and rural systems in which even minor projects can be unaffordable. And I thank the chairman for calling this hearing to examine some of the challenges these systems face.    In 1996, this committee passed amendments to the Safe Drinking Water Act that set a number of programs intended to help small and rural water systems. Those programs focused on capacity development, operator certification, infrastructure, funding, and technical assistance. All of them are designed to ensure the customers of small systems receive safe and affordable drinking water. The small pot of money set aside for technical assistance distributed through grantees, such as the National Rural Water Association and the Rural Community Assistance Partnership, have been incredibly important for small assistance. And I am glad that both NRWA and RCAP represented here today to discuss any changes that might be needed to strengthen the program.    I expect we are going to hear that the need for technical assistance far outpaces the funding available. And I hope my colleagues on the other side of the aisle will join with us to ensure that this program is given sufficient funding to meet the requirements of small systems.    But the same is true for the drinking water State Revolving Fund or SRF. If we really want to ensure that small and rural systems are providing safe and affordable water, we should reauthorize the whole SRF, not just the technical assistance piece. The technical assistance piece is less than 2 percent of the whole pot, so we should not lose sight of the bigger picture.    For disadvantaged communities, the 1996 amendments allow States to provide additional support through the SRF and most funding from the SRF goes out as loans. But for disadvantaged communities, States are authorized to provide zero interest loans or even principal forgiveness. For small and rural systems with small customers bases, this is incredibly important.    But unfortunately States are not currently required to provide this assistance to disadvantaged communities and not all do. This assistance may become even scarcer in coming years as the overall drinking water infrastructure need continues to grow faster than the available funding.    When this subcommittee moved legislation to address toxic algae, I expressed my hope that it would be the start of broader drinking water work. And I am pleased that the chairman is now addressing another important drinking water issue. But as I said at the hearing on the toxic algae, our responsibility on drinking water is comprehensive. Small systems serve only 8 percent of the population. We should absolutely do what is necessary to ensure they have safe water, but we should also protect the other 92 percent and means reauthorizing the SRF, ensuring that fracking is done safely, ensuring source water protection, addressing drought and planning, of course, for climate change.    So I look forward to more drinking water hearings and more bipartisan conversations about some legislative solutions.    And thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -88,6 +115,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Gomez</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gomez. Thank you, Mr. Chairman.    Good morning, everyone, Ranking Member Tonko, and members of the subcommittee.    I am pleased to be here today to discuss the infrastructure needs----</t>
   </si>
   <si>
@@ -106,6 +136,9 @@
     <t xml:space="preserve">    Mr. Shimkus. And I know the Hudson. I lived in a small technical school down south on the river, the West Point school for wayward boys. So that is my alma mater and so I know the river and the valley real well. So welcome, and we are glad to have to you.    You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Keegan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keegan. Thank you.    Good morning, Mr. Chairman and members of the subcommittee.    And my congressman, good morning, Congressman Tonko.    I am Joe Keegan, the mayor of a charming little village a few miles south of Albany, New York, on the banks of the Hudson River called Castleton-on-Hudson. We have a population of approximately 1,500 of the best people anywhere. My village is a member of the New York Rural Water Association, a nonprofit organization of small and rural communities throughout the State, which is somewhat responsible for my appearance here today. I got a call from the association on Monday asking about my availability, and I just happened to be traveling back to Castleton last night from a trip related to my day job.    My village is very typical and representative of communities that have water supplies in New York and the rest of the country. According to the U.S. Environmental Protection Agency, the State of New York has 2,305 community water systems, 88 percent of those serve populations under 3,300. All of the small community and water and sewer utilities have to comply with the same regulations, testing, and certifications as the biggest cities, but with only our very small rate payer base. And we have to operate, maintain, and update our water infrastructure with very small budgets.    As a small community mayor, my number one concern and worry is drinking water and number two is wastewater. Everything else is a distant third. If there is a problem with the drinking water, it has to be addressed immediately, middle of the night, middle of the winter. It doesn't matter when. Every citizen and especially the most vulnerable depend on the safety of the water, including families with infants, schools, our nursing homes, and people with compromised immune systems. We can't have any contamination of the drinking water. Our sewer system also needs to function properly to avoid any possibility of a sewage spill or sewage backup into people's homes.    I would say to you that this really does keep me up at night. Congressman Tonko knows that, right now, our part of the State is buried in snow. Just last week, the frost penetrated the ground so deeply that we experienced two ruptures in our water mains that are 5 to 6 feet underground. This forced us to issue a boiled water advisory where we have to tell families to boil water as well as contact all the schools. They have to cover their water fountains, the press, the nursing home, et cetera. I actually call as many citizens as I can by robo-call. When something like this occurs, we manage the situation around the clock, locating equipment to excavate the frozen ground, repairing the waterline, getting the tests to the lab, and waiting for the all-clear results to lift the boil water order.    We appreciate the assistance of the subcommittee and Congress in helping us protect the public and successfully operate the public drinking water and wastewater supply through the various funding programs and the on-sight technical assistant initiatives. My village relies on this assistance.    I want to thank Congressman Tonko for sponsoring the Assistance Quality and Affordability Act of 2014 in the last Congress. Small and rural communities support your legislation because it enhanced the current Drinking Water State Revolving Fund by further targeting the funding to communities most in need. We do need help.    Everything from financing, regulations compliance, and the various programs are very complicated for small communities. We don't have financial professionals on staff and often don't understand many of the funding processes.    We currently have needs approaching $3 million for our wastewater system. We need new aeration tanks, new sludge drying equipment, and new pumps as our facility is over 30 years old. We need to stop rainwater from leaking into the system and overtaxing our capacity.    My water operator is constantly explaining to me the need for these upgrades and his concerns of possible failure. However, we don't really have a way to finance it. It would triple the sewer rates to take out a loan for that much. You can see in the picture at the back of my testimony that we have some very old drinking water pipes that need updating or replacing at a substantial cost. The one in the picture is stamped with a date from the 19th century, and they are still in the ground in parts of the village.    We are concerned that, without more waterline replacement, we are vulnerable to more breaks and crisis. And you can see the other picture of a tuberculated pipe we recently dug up that is loaded with corrosion and deposits to the point it is almost occluded.    In my remaining time, I just want to emphasize the essential assistance we receive from the New York Rural Water Association and explain why it is so helpful. The association has circuit riders that are on call throughout the State that will come and assist us immediately, including evenings and weekends. The circuit riders are all experts in the technical side of water operations. Just a week ago, we called for help for locating a water leak from a ruptured pipe that could have occurred over any part of 100 foot waterline. The circuit rider has specialized equipment that can detect noises and vibrations underground to locate the exact location of a break.    In addition, my operators receive 90 percent of the training needed to retain their operator's licenses from the New York Rural Water Association. We depend on them just like every other small community.    Mr. Chairman, I have a lot more to say, but you have been very charitable with your time and attention to small and rural communities.    And on behalf of every small town elected official, we are grateful. Thank you for hearing from us, and I will answer any questions later.</t>
   </si>
   <si>
@@ -115,18 +148,27 @@
     <t xml:space="preserve">    Mr. Shimkus. We will call the hearing back to order, and now I will turn to Mr. K.T. Newman on behalf of the Rural Water Association.    Sir, you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Newman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Newman. Good morning, Mr. Chairman and members of the subcommittee. Thank you for the opportunity to testify here today.    My name is K.T. Newman, and I have been working for or in small and rural community water systems in the Mississippi Delta for nearly 20 years. I first started out as a small city water manager in my hometown of Vaiden, Mississippi, which has about 1,000 homes. I then worked for the Mississippi Rural Water Association as a circuit rider for 10 years. In this capacity, I visited every one of the Delta's approximately 500 small communities to help them with their water and sewer problems. Currently, I am working for about two dozen small Delta communities assisting them with their water and sewer utilities.    I am honored to be accompanied here today by the mayor of one of these small towns, Mayor Everette Hill from Como, Mississippi. The town of Como has a population of approximately 1,200 persons. The mayor's challenges are compounded by the fact that as a small-town mayor he has a full-time job as a truck driver and has to handle much of the city's issues on his free time. His community has little professional staff because they simply can't afford it.    In Como, the wastewater system is failing because of its age and inability to meet its current EPA treatment. The cost to update Como's sewer system to be compliant is approximately $2 million. The Como drinking water system needs an additional $1 million in upgrades. The town was recently fined by the Department of Environmental Quality for failure to comply with their wastewater discharge permit. Currently, the Como wastewater treatment facility is actually discharging only partially treated wastewater due to failure of the current treatment works.    Como is just like thousands of other small communities in the Delta and the other States. They need a grant-rich infrastructure program like the USDA's rural development program, and they need access to someone they can trust for technical advice, on-site assistance, and help with managing the funding application process.    Mississippi has 1,234 regulated public water systems. Only two serve populations over 50,000 persons, and only 59 serve populations over 10,000 persons. More training needs to be provided to small town mayors like Mayor Hill so that multimillion-dollar upgrades that will most certainly tax the ratepayers of these communities can be more readily understood and communicated to these residents who will ultimately be responsible for bearing the financial burden.    Recently, many of the small communities in the Delta have received violations for a relatively new EPA regulation referred to as the disinfections byproduct rule. These byproductsare a result of disinfecting their water to make it safe to drink. If these small communities limit or reduce the disinfective levels of the water, they will most certainly comply with this EPA regulation, but the water may no longer be safe to drink. Once the disinfection byproduct rule is violated, many small communities are forced to spend limited resources to report these violations to the consumers.    In the town of Shaw, population 1,900 persons, the community was under a boil water order for over 6 months because of a broken chlorinator needed to disinfect the drinking water. The local schools had to buy bottled water for 6 months. After they called the Mississippi Rural Water Association's circuit rider, Tom Abernathy, they were able to come up with a plan to pay for a new chlorinator, revise the town's billing program--able to come up with a plan to pay for a new chlorinator, revise the town's billing program to accurately assess the water used by citizens, and receive the payments, train the new mayor and town council, get the town's credit stable and secure some emergency State Revolving Fund financing.    In closing, whenever a small community is facing a compliance issue, the complication of a new EPA rule, a line break that they can't find that is causing people to lose water service, an emergency from a storm or power loss, we all call the circuit riders to tell us what it means and what to do. They have developed a trust relationship with small communities in their State that know how to fix things and are willing to come to your town day, night, or weekend.    Thank you for the opportunity to testify here today. Mayor Hill and I are available for questions. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much, and welcome, Mayor Hill. It is good to have you with us also.    I would now like to turn to Mr. Bobby Selman on behalf of the Mississippi Rural Water Association.    And you are recognized for 5 minutes.    Thank you.</t>
   </si>
   <si>
+    <t>Selman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Selman. Good morning, Mr. Chairman and members of the subcommittee. It is an honor to appear before you today.    My name is Bobby Selman. I am a certified drinking water and wastewater operator in the State of Mississippi with an engineering background from Mississippi State. I have been working in the water world for 25 years, starting in my hometown in Lawrence County. I still work for the Lawrence County Water Authority in addition to 12 other small communities and rural water associations.    I want to thank my Congressman, Gregg Harper, for his support and assistance to all the over 150,000 small public water systems across the country for sponsoring the Grass Roots Rural and Small Community Water Systems Assistance Act. Representative Harper's bill directs the U.S. Environmental Protection Agency to prioritize the type of technical assistance that small communities find is most beneficial.    The rural water type of on-site technical assistance is what all the small communities in Mississippi and the other States rely on for help with compliance, operations, emergencies, line breaks, loss of water, setting rates, and training for operator certification. I am told that Congress funds the EPA's internal management budget by hundreds of millions of dollars every year. Small and rural communities want Congress to know that the only benefit we get comes from the small portion of the EPA funding that is directed to on-site technical assistance provided by what we call circuit riders.    What small communities do when they have a question or water issue is call their local circuit rider that they know, trust, and know can give them clear answers. These circuit riders often come immediately on site to small communities and teach them how to fix their problem. There is just no one else out in the field at the local level providing this essential help.    After Katrina, two of my small communities in Simpson County were devastated. Each served approximately 2,500 people, and they were without power and water. People in communities can get by without power for a while, but not without water. I called the Mississippi Rural Water Association circuit riders and they found emergency generators for me and delivered them to the communities at no charge.    Since the circuit riders know everybody in the State, they were able to borrow some generators from northern communities not impacted by the hurricane and had the generators delivered to get the drinking water and sanitation restored immediately. The circuit riders also had the technical know-how to rig the generator's electrical systems, size the right voltage, and even drive a backhoe if needed to clear the streets and dig up ruptured lines. All of this type of assistance is essential to restore a water supply in an emergency.    I called a circuit rider out to help me at a Double Ponds Water Association, a community of about 1,000 homes to find a line break causing a loss of water for many homes. The circuit rider came with advanced radar equipment that can precisely identify the location of the break, which on this day happened to be out in the woods. By funding the circuit riders, Congress is allowing all small and rural communities to share this technical resource that no one community can afford on their own. We think it is the best use of our Federal water environmental dollars.    With the federalization of the operator certification under the Safe Drinking Water Act of 1996, State rural water associations have become the main source of training for operators and the main source of continued education credits which are needed every year to maintain this certification.    Many parts of rural America have seen industry move on, leaving behind depressed economies. In my region the garment industry moved south after NAFTA. When this happens, raising rates becomes overly burdensome. In the town of New Hebron, Mississippi, with just over 400 people, we are now being told that we need to comply with a new EPA wastewater discharge permit that will cost $2 to $3 million.    I will close with some comments on the Federal water infrastructure programs, namely the EPA State Revolving Funds and the USDA Rural Development Grant and Loan Program. We are very appreciative for Congressional funding of these initiatives, and realize the funding constraints in Congress and the Nation. Notwithstanding the curtailment Federal funding, the regulatory burden continues to increase and become more complex.    We urge you to emphasize grants in these funding programs. Low interest loans often don't help the communities facing the most severe hardship from Federal compliance, leaving the loan funds to be used for compliance with greater ability to afford financing. We are very grateful for the funding assistance. It has allowed many rural and small communities to have access of drinking water and sanitation that would otherwise not have been able to afford without the Federal assistance, and we want to be partners in the effort to make the initiative as efficient and successful as possible.    Thank you very much, Mr. Chairman, and I am eager to answer any questions at the appropriate time.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Shimkus. Thank you very much.    Our last but not least panelist is Mr. Robert Stewart, who is the Executive Director of the Rural Community Assistance Partnership.    Welcome, sir, and you are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Stewart</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Stewart. Thank you, Chairman Shimkus, Ranking Member Tonko, and members of the committee.    I think the previous witnesses and you all have done a excellent job of sort of framing the issue. As someone that has worked 20 years with hundreds of communities in Texas, both for the Rural Community Assistance Partnership and the Rural Water Association, and someone who has directed a national program for 10 years, I am here to tell you that the needs of small communities are many, the resources are limited, but I tell you, the dedication and the determination of small communities to provide their citizens with the best possible water is strong and undiminished.    I want to--I am sure everyone knows a little bit about the Rural Community Assistant Partnership. It is in my testimony, and I won't repeat things that are in my testimony. I just wanted to sort of make a few points that have been touched on but maybe I could amplify a little bit.    One is the access to capital. I think there is a real issue in small communities in accessing the financial resources that they need in order to build the infrastructure, extend lines to new customers. I believe Mr. Gomez talked a little bit about access to the municipal bond market. For small communities, this is just not an option at all. We find that there is 53,000-some-odd community water systems in the country. Perhaps 4 percent of them have the ability to access the municipal bond market.    So what they are left with is the two primary Federal financing programs, being the Drinking Water SRF and USDA Rural Developments Water and Environmental Programs, and so, you know, it is really critical that those programs continue to be supported in a robust manner. We work a lot with rural development and their water environment program. They are the primary lender in rural communities. They have some 18,000 plus loans out with small water systems, and as you probably know, there is virtually no default on these loans. We take these matters very seriously in repaying the loans that are made to small communities.    One of the things that RD has going for them is they have field staff in every State. They have the ability to work directly with the communities. The communities know their local folks in the district and State offices, and it is just a more cooperative and easier way to get funding through rural development.    Rural Development also funds both the Rural Water Association and RCAP to do technical assistance and training. A lot of the staff that work for me around the country work through the application processes and all the requirements that are needed in order to get a loan from Rural Development.    EPA State Revolving Funds are also a very important part of the financing scheme for small communities. I think all of you know that as a result of the 1996 amendments to the Safe Drinking Water Act the State revolving program was formed, and it was mainly to deal with compliance issues, and if you look at who is out of compliance or where the most health-based compliance issues are, 96 percent of those are from small communities. So you would think that, you know, most of the money or a big portion of the money would go to the communities, whether they are urban, rural, small or large that have the compliance issues, but as you can look at EPA's own numbers, perhaps 25 percent of the funding actually goes to the small communities in this country.    You know, we would think that a larger amount of money from the SRF program should be dedicated to economically disadvantaged and small rural communities.    EPA does have a--has a program as a result of the 1996 amendments that funds the technical assistance kind of a program that both Rural Water and RCAP have advantage of. It is not funded at the authorized level that was authorized 20 some years ago, and so we would hope that you would consider some additional resources for that particular program.    And I know one of the things you are looking at is what else can be done? You know, what else can we do to work with small communities. There are a lot of other options. One of which both Rural Water and RCAP work on is the sharing of services. How can small communities get together, share an operator, share a manager, share purchasing. How can we look at possibilities that actually--you know, combining systems if they are close. It is very difficult, and one of the problems the funding agencies have is that it easier for them to make a $10 million loan than 10 $1 million loans. So that sort of hurts small communities even more. With reduced staffing levels in both EPA and RD, there is an emphasis more for the larger loans, which I think adversely affects small communities even more.    So I think the regionalization approaches where appropriate are important, but the only way those are going to happen is that if you have people like the circuit riders and the technical assistance providers that work for RCAP that are out working with those communities on a day-in/day-out basis to sort of work through those kind of issues.    One of the other things real quickly because my time is running out is you talk about tools. I would like to give credit to EPA for developing the variety of tools and for working with Rural Development on tools. Assess management tools, tools to look at sustainability for communities. Again, tools are important to be developed for use by small communities, but it takes someone in the field like a Rural Water or an RCAP person to actually bring those tools out to these communities, and if it--I would also--if maybe this could be handled in the questions, I know you are interested in WIFIA and some of the other alternative financing programs. I would be glad to talk about that also.    My time is up, though, so I really appreciate the opportunity to be here with you today.</t>
   </si>
   <si>
@@ -256,6 +298,12 @@
     <t>400160</t>
   </si>
   <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman for--both you and Ranking Member Tonko for holding the hearing on the drinking water needs of smaller communities.    I represent a very urban district in unincorporated and incorporated Houston, Texas, and we have some of the same problems in our suburban areas that will not be annexed by our cities because the property tax could never cover the cost, and yet they are literally south of Intercontinental Airport in Houston and areas in that district, and over the years in Texas, we have received money from the State Revolving Fund. In fact, partnered with using it in some of these communities to provide fresh water but also partnering with the county because--for sewer service.    But it bothered me that last year Texas received the lowest amount of money from the State Revolving Fund of $53 million, and that goes back to 1997, and that is not anywhere nearly accounting for inflation. The fact is deeply troubling because of the significance in growing drinking water infrastructure needs of Texas in general, and, like I said, a very urban district. If it is in the city, they will get--they will do it, but this area is not attractive to be annexed, and it is very poor communities, and that is where we need the help. Their septic tanks fill, and, again, a very urban area and very shallow water wells. That is why this hearingis important.    My first question is, Mr. Newman, Mr. Selman, and Mr. Stewart, do you believe that the Congress should reauthorize the drinking water State Revolving Fund this year?</t>
   </si>
   <si>
@@ -337,6 +385,12 @@
     <t>400285</t>
   </si>
   <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Murphy. Thank you all. I will talk a little fast. See what I can get in.    This is for Mr. Selman or Mr. Newman, and thank you all for being here. Very informative panel.    Engineers who serve in some of these rural water systems in my district, for example, in Greene County in my southwestern Pennsylvania, very rural area, but they tell me that States oftentimes impose their own drinking water requirements which are far more strict than the EPA standards set forth in the Drinking Water Act.    Could you please provide some examples for me where some of these State-imposed requirements that you have seen in your community or communities go beyond or differ from the EPA standards?</t>
   </si>
   <si>
@@ -424,6 +478,12 @@
     <t>412256</t>
   </si>
   <si>
+    <t>Latta</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Latta. Well, thank you, Mr. Chairman, and to our panel, thank you very much for being here.    This kind of strikes home to me because as a county commissioner in Wood County--and from Wood County in Ohio for 6 years and handled a lot of water and sewer issues, and also we created a regional water and sewer district when I was the commissioner to put things together because my home county was over 600 square miles. We had all or part of five cities, 21 villages, 19 townships and a lot of unincorporated area.    And it is important to--and hearing all of you brings back memories of over 20 years ago that I used to sit in a lot of meetings and hear people talk about because they are really very important issues. In Ohio alone, I think we have got about $21 billion right now that we are looking at that we need in infrastructure improvements from water to wastewater and storm water, and so what you are saying here today is very, very important, and really appreciate you being here because I can commiserate with what you have all said, and I have also been working on legislation for at least one session to try to help on the wastewater side to help rural communities.    But if I could, because I take it you all had very good testimony today, and again--and appreciate you being here, and if I could start with Mr. Gomez, you know, you--I think it is important because one of the things that we have been hearing out here is there is a shortage of dollars out there that we have, especially--and when you are talking about our rural areas.    Could you discuss the relationship between the EPA and USDA programs and whether they are--you know, there are overlaps out there and what about the efficiencies or synergies that could occur if we were really looking at these programs and make sure that we didn't have duplication out there or anything like that.</t>
   </si>
   <si>
@@ -451,6 +511,12 @@
     <t>412487</t>
   </si>
   <si>
+    <t>McKinley</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McKinley. Thank you, Mr. Chairman.    Going to go in several directions with this, but I have got--we have all heard a lot of horror stories, and I have got mine in my district. I have got a little town in West Virginia. I think we have got a slide, perhaps, of a water line that they are--they have been facing--could we get that up? There it is.    It shows how just colluded the line is, that they can't--they have applied--however, knowing this, they have applied 10 times to try to get money, and they have been rejected 10 times since 2002. It just isn't--people--we just don't have the money in the SRF, and what I was particularly pleased about was the President this year actually maintained the--for the most part, the funding from the previous year as compared to what we have seen in the past where the year before he made a 40 percent reduction in the SRF because they said the priority was climate change, and we have heard that mentioned from the other side of the aisle. They thought climate change was a higher priority than funding our water problems in rural America.    I have got--I am curious. So I hope we--I hope someone has seen the light with that, but the--I am confused a little bit about the regulatory burden because it--particularly a lot of you have been talking--this hearing is about rural America, not what has been offered is we got to be concerned about the big cities.    I am worried at this hearing that we stay focused on rural America because here is just a listing of some of the rules--I don't know whether these people--I have designed a lot of sewer and water lines.    So as an engineer I am quite familiar with this, but we have got things that a small city has to take care of is the arsenic rule, the chemical rule, lead and copper rules, the uranium rule, the Federal backwash rule, the groundwater rule, the enhanced surface water rule, the cert, both I and II, the disinfect byproduct rule, 1 and 2, the surface water rule, total coal--I could go on and on.    These are rules that small cities have to deal with just as well as a larger community of 100,000 or 200,000. So my--and I have got three other communities that they are just trying to find money for operations, let alone install--this one community is--they are working on--like, one of you said up there, a 19th century system. They are trying to replace it with that water line right there.    How can we get money for operations? Because we have got one community in West Virginia--they are dumping raw sewage into the Potomac River because they don't have money to be able to do their maintenance work that they have to do. We have got others that--I got another community, they are getting their water through water buffaloes pouring into a cistern so that they have some water with that----    This is 2015 in America, but yet we have an administration that until this year every year for the last 3 years has been reducing money to the SRF. What are we failing--how are we failing our country when we don't put enough money into the SRF? How do--because that is what I have heard many of you say, we need to put more money into that program. What do we have to do? How much more money?    Can any of you suggest where we have to go with that? And I would also add, should we be prioritizing the SRF money for rural communities so that we are weighting them a little more heavily than the big cities? Mr. Stewart, does----</t>
   </si>
   <si>
@@ -472,6 +538,12 @@
     <t>412460</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    I represent Appalachian, Ohio, and I don't have to tell you folks probably how rural that is. I hear the horror stories, many of which you have just heard. I could cite similar cases that my colleague from West Virginia, Mr. McKinley did.    Mr. Selman, long before I was elected to Congress, I served 26 years in the Air Force, and I was stationed in Columbus, Mississippi, and you know how rural that area is. So I have seen this for a long time.    Mr. Gomez, does the GAO track and can you tell us in regards to all urban and rural systems how many municipalities have their systems charge the true cost of providing water to their customers? In other words, how many of them are operating in the red?</t>
   </si>
   <si>
@@ -563,6 +635,12 @@
   </si>
   <si>
     <t>412555</t>
+  </si>
+  <si>
+    <t>Cramer</t>
+  </si>
+  <si>
+    <t>Kevin</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Cramer. Thank you, Mr. Chairman from Illinois and ranking member from New York, for acknowledging rural America and for reminding us there are other rural places that are better known for their urban centers. It is good to have an alliance.    My colleagues or my constituents with the North Dakota Rural Water Systems Association would be very proud of all of you. You have done a great job today, and I felt right at home even with the unusual accents. But it is a reminder that there are some things we work together on and that are very important.    And I won't--you know, I won't delay except to tell you that we hear a lot--I hear a lot about the circuit rider program from our folks, and I think you raise a very important issue. And I think that it is incumbent upon us now, as policymakers and eventually appropriators, to look for opportunities to prioritize some of the programs you talked about within the context of the entire act. And given the constraints, the financial constraints we have, we do have to be a little bit creative, but certainly we can re-prioritize.    I want to just ask for maybe a little bit of elaboration on one point. I thought the GAO report was fantastic frankly. And I think that it was--it is nice to see the alphabet soup, as my constituents often refer to it, and see that there is both recommendation, findings, and then response by multiple agencies that have a tendency perhaps to create extra burden by virtue of requiring, you know, sort of uniform processes, but not in a uniform way. And so the uniform preliminary engineering report template, I think, is a great tool.    And I think at a time when our constituents really are looking for an efficient, effective Government, this is a good example. And I raise it because I wonder how many more times we could duplicate this throughout the system. One of the frustrations I have seen in the last 2 years here is, not just with EPA and USDA rural developments, certainly, in fact, you know, there are many others have more. I just hope that we could, as a House, as a Congress, and as public officials at every level, look for more of these types of opportunities where the public could go, wow, that makes perfect sense. Because right now they look at it--and I am sure you all do and say, ``You mean I have to hire the engineering firm to do the exact same thing all over again for another agency and pay them this same.''    So, I guess, mainly what I want to say is thanks for that. I will want to be monitoring that very carefully to see how it works out, and I know you will as well, Mr. Gomez, because I think therein lies the nuggets of opportunity to demonstrate functionality of Government in a way that people expect of us and that we haven't probably done so well.</t>
@@ -932,7 +1010,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:I171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -940,7 +1018,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -962,4085 +1040,4802 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
       <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>44</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>47</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G41" t="s">
+        <v>23</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>23</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
+        <v>23</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
+        <v>23</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s">
+        <v>23</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s">
+        <v>23</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G52" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I57" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
+        <v>44</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
       <c r="H59" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G60" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
       <c r="H61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
       <c r="H63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G65" t="s">
+        <v>94</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G66" t="s">
+        <v>50</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G67" t="s">
+        <v>94</v>
+      </c>
       <c r="H67" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G68" t="s">
+        <v>50</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G69" t="s">
+        <v>94</v>
+      </c>
       <c r="H69" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>23</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>23</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G72" t="s">
+        <v>94</v>
+      </c>
       <c r="H72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
       <c r="H73" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G74" t="s">
+        <v>94</v>
+      </c>
       <c r="H74" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
       <c r="H75" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>94</v>
+      </c>
       <c r="H76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>23</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G78" t="s">
+        <v>50</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>79</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G79" t="s">
+        <v>94</v>
+      </c>
       <c r="H79" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G80" t="s">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>79</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G81" t="s">
+        <v>94</v>
+      </c>
       <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I81" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G82" t="s">
+        <v>44</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G83" t="s">
+        <v>94</v>
+      </c>
       <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I83" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>23</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G84" t="s">
+        <v>44</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>79</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G85" t="s">
+        <v>94</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I85" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>50</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G87" t="s">
+        <v>94</v>
+      </c>
       <c r="H87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G89" t="s">
+        <v>94</v>
+      </c>
       <c r="H89" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I89" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G90" t="s">
+        <v>13</v>
+      </c>
       <c r="H90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G91" t="s">
+        <v>94</v>
+      </c>
       <c r="H91" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>106</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G93" t="s">
+        <v>123</v>
+      </c>
       <c r="H93" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>23</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G94" t="s">
+        <v>44</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>106</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
       <c r="H95" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G96" t="s">
+        <v>47</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>106</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G97" t="s">
+        <v>123</v>
+      </c>
       <c r="H97" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
+        <v>47</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>106</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G99" t="s">
+        <v>123</v>
+      </c>
       <c r="H99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I99" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>23</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G100" t="s">
+        <v>50</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>106</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G101" t="s">
+        <v>123</v>
+      </c>
       <c r="H101" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I101" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>23</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
+        <v>50</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>106</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G103" t="s">
+        <v>123</v>
+      </c>
       <c r="H103" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>23</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>106</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G105" t="s">
+        <v>123</v>
+      </c>
       <c r="H105" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>23</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G106" t="s">
+        <v>50</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>106</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G107" t="s">
+        <v>123</v>
+      </c>
       <c r="H107" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>106</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G109" t="s">
+        <v>123</v>
+      </c>
       <c r="H109" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
+        <v>40</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>106</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G111" t="s">
+        <v>123</v>
+      </c>
       <c r="H111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>23</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>47</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>106</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G113" t="s">
+        <v>123</v>
+      </c>
       <c r="H113" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>23</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G114" t="s">
+        <v>40</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G115" t="s">
+        <v>123</v>
+      </c>
       <c r="H115" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>23</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>106</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G117" t="s">
+        <v>123</v>
+      </c>
       <c r="H117" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>23</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G118" t="s">
+        <v>40</v>
+      </c>
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>106</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G119" t="s">
+        <v>123</v>
+      </c>
       <c r="H119" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>135</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G121" t="s">
+        <v>154</v>
+      </c>
       <c r="H121" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>23</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G122" t="s">
+        <v>33</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>135</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G123" t="s">
+        <v>154</v>
+      </c>
       <c r="H123" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>23</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G124" t="s">
+        <v>50</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>135</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G125" t="s">
+        <v>154</v>
+      </c>
       <c r="H125" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>23</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>44</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>135</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G127" t="s">
+        <v>154</v>
+      </c>
       <c r="H127" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G129" t="s">
+        <v>165</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>23</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G130" t="s">
+        <v>50</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G131" t="s">
+        <v>165</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>23</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G132" t="s">
+        <v>33</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="G133" t="s">
+        <v>165</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="I133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>151</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G135" t="s">
+        <v>174</v>
+      </c>
       <c r="H135" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I135" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>23</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G136" t="s">
+        <v>33</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>151</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G137" t="s">
+        <v>174</v>
+      </c>
       <c r="H137" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I137" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>151</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G139" t="s">
+        <v>174</v>
+      </c>
       <c r="H139" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I139" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>151</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G141" t="s">
+        <v>174</v>
+      </c>
       <c r="H141" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I141" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G142" t="s">
+        <v>44</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>151</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G143" t="s">
+        <v>174</v>
+      </c>
       <c r="H143" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I143" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G144" t="s">
+        <v>44</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>151</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G145" t="s">
+        <v>174</v>
+      </c>
       <c r="H145" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I145" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G146" t="s">
+        <v>44</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>151</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G147" t="s">
+        <v>174</v>
+      </c>
       <c r="H147" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I147" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G148" t="s">
+        <v>44</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>151</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G149" t="s">
+        <v>174</v>
+      </c>
       <c r="H149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I149" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>151</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G151" t="s">
+        <v>174</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I151" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>23</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G152" t="s">
+        <v>44</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>151</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G153" t="s">
+        <v>174</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I153" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>23</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G154" t="s">
+        <v>44</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>151</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G155" t="s">
+        <v>174</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I155" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>23</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G156" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>151</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G157" t="s">
+        <v>174</v>
+      </c>
       <c r="H157" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I157" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>47</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>151</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G159" t="s">
+        <v>174</v>
+      </c>
       <c r="H159" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I159" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>23</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>47</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>151</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G161" t="s">
+        <v>174</v>
+      </c>
       <c r="H161" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G162" t="s">
+        <v>40</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>151</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>173</v>
+      </c>
+      <c r="G163" t="s">
+        <v>174</v>
+      </c>
       <c r="H163" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>175</v>
+      </c>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>11</v>
-      </c>
-      <c r="G164" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>13</v>
+      </c>
       <c r="H164" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>182</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G165" t="s">
+        <v>207</v>
+      </c>
       <c r="H165" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="G166" t="s">
+        <v>33</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>182</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>206</v>
+      </c>
+      <c r="G167" t="s">
+        <v>207</v>
+      </c>
       <c r="H167" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>208</v>
+      </c>
+      <c r="I167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>11</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>13</v>
+      </c>
       <c r="H168" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G169" t="s">
+        <v>23</v>
+      </c>
       <c r="H169" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>11</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G171" t="s">
+        <v>13</v>
+      </c>
       <c r="H171" t="s">
-        <v>189</v>
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95493.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95493.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="222">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400373</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Shimkus</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412280</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Harper</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Tonko</t>
   </si>
   <si>
@@ -100,6 +112,9 @@
     <t>400308</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Pallone</t>
   </si>
   <si>
@@ -296,6 +311,9 @@
   </si>
   <si>
     <t>400160</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Green</t>
@@ -1010,7 +1028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1018,7 +1036,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1043,4799 +1061,5176 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" t="s">
-        <v>44</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>32</v>
-      </c>
-      <c r="G27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>44</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H39" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" t="s">
-        <v>40</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>45</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H43" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" t="s">
-        <v>40</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>45</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H45" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J45" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G47" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
-      </c>
-      <c r="G48" t="s">
-        <v>44</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>49</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H49" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
-      </c>
-      <c r="G50" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H51" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J51" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" t="s">
-        <v>50</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G53" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H53" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I53" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I55" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G56" t="s">
-        <v>44</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
-      </c>
-      <c r="G58" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>47</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>47</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G65" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H65" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J65" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
-      </c>
-      <c r="G66" t="s">
-        <v>50</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>55</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G67" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H67" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
-      </c>
-      <c r="G68" t="s">
-        <v>50</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>55</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G69" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>47</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
-      </c>
-      <c r="G71" t="s">
-        <v>44</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>49</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G72" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G74" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I76" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>47</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" t="s">
-        <v>50</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G79" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H79" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" t="s">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G81" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H81" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" t="s">
-        <v>44</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>49</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G83" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H83" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I83" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
-      </c>
-      <c r="G84" t="s">
-        <v>44</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>49</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G85" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H85" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I85" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
-      </c>
-      <c r="G86" t="s">
-        <v>50</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>55</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G87" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H87" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I87" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" t="s">
-        <v>50</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>55</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G89" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H89" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I90" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G91" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H91" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I91" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>101</v>
+      </c>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G93" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I93" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
-      </c>
-      <c r="G94" t="s">
-        <v>44</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>49</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G95" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H95" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I95" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J95" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
-      </c>
-      <c r="G96" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G97" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
-      </c>
-      <c r="G98" t="s">
-        <v>47</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>52</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G99" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H99" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I99" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J99" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
-      </c>
-      <c r="G100" t="s">
-        <v>50</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G101" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I101" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
-      </c>
-      <c r="G102" t="s">
-        <v>50</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>55</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G103" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I103" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
-      </c>
-      <c r="G104" t="s">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>45</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G105" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
-      </c>
-      <c r="G106" t="s">
-        <v>50</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>55</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G107" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H107" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I107" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G109" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H109" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I109" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
-      </c>
-      <c r="G110" t="s">
-        <v>40</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>45</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G111" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H111" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I111" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
-      </c>
-      <c r="G112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G113" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H113" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I113" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
-      </c>
-      <c r="G114" t="s">
-        <v>40</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>45</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G115" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H115" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I115" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>45</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G117" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H117" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I117" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
-      </c>
-      <c r="G118" t="s">
-        <v>40</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>45</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G119" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H119" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G121" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="H121" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I121" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J121" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
-      </c>
-      <c r="G122" t="s">
-        <v>33</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>38</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G123" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I123" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J123" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
-      </c>
-      <c r="G124" t="s">
-        <v>50</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>55</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G125" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="H125" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I125" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
-      </c>
-      <c r="G126" t="s">
-        <v>44</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>49</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="G127" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="H127" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I127" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>161</v>
+      </c>
+      <c r="J127" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G129" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I129" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J129" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
-      </c>
-      <c r="G130" t="s">
-        <v>50</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>55</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G131" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="H131" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J131" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
-      </c>
-      <c r="G132" t="s">
-        <v>33</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>38</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G133" t="s">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="H133" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I133" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>172</v>
+      </c>
+      <c r="J133" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G135" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H135" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I135" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>32</v>
-      </c>
-      <c r="G136" t="s">
-        <v>33</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>38</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G137" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H137" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I137" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>38</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G139" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I139" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>38</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G141" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H141" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I141" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
-      </c>
-      <c r="G142" t="s">
-        <v>44</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G143" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H143" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>32</v>
-      </c>
-      <c r="G144" t="s">
-        <v>44</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>49</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G145" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H145" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I145" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>32</v>
-      </c>
-      <c r="G146" t="s">
-        <v>44</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>49</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G147" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H147" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I147" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J147" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
-      </c>
-      <c r="G148" t="s">
-        <v>44</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>49</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G149" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H149" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I149" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
-      </c>
-      <c r="G150" t="s">
-        <v>44</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>49</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G151" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I151" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J151" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
-      </c>
-      <c r="G152" t="s">
-        <v>44</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>49</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G153" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H153" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I153" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J153" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
-      </c>
-      <c r="G154" t="s">
-        <v>44</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>49</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G155" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I155" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J155" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
-      </c>
-      <c r="G156" t="s">
-        <v>44</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>49</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G157" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H157" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I157" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J157" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>32</v>
-      </c>
-      <c r="G158" t="s">
-        <v>47</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>52</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G159" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H159" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I159" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J159" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
-      </c>
-      <c r="G160" t="s">
-        <v>47</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>52</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G161" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H161" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I161" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J161" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>32</v>
-      </c>
-      <c r="G162" t="s">
-        <v>40</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>45</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G163" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="H163" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>181</v>
+      </c>
+      <c r="J163" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G164" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H164" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J164" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G165" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="H165" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I165" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J165" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
-      </c>
-      <c r="G166" t="s">
-        <v>33</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>38</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="G167" t="s">
-        <v>207</v>
+        <v>99</v>
       </c>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="I167" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>214</v>
+      </c>
+      <c r="J167" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G168" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H168" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I168" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J168" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G169" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H169" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I169" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J169" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I170" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G171" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I171" t="s">
-        <v>215</v>
+        <v>16</v>
+      </c>
+      <c r="J171" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
